--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\04.Spring\02.Workspace\Intranet\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45129BE3-7A3A-4D1D-BCD7-F4F90B48EEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E67F95-8955-4AEF-9370-328B2B1FC86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="157">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRD_IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BRD_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTENT_IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE_SNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TASK_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,18 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEMPLATE_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMPLATE_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPPR_TEMPLATE_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrTempInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +616,22 @@
   </si>
   <si>
     <t>결재 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_CONT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,29 +1167,29 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
@@ -1216,35 +1208,35 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>16</v>
@@ -1257,35 +1249,35 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -1298,35 +1290,35 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -1339,35 +1331,35 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1409,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1418,30 +1410,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1454,13 +1446,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1472,13 +1464,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1490,13 +1482,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -1508,13 +1500,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1526,13 +1518,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1544,13 +1536,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1562,13 +1554,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1580,13 +1572,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -1598,13 +1590,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1616,13 +1608,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -1634,13 +1626,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5">
         <v>12</v>
@@ -1652,13 +1644,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3">
         <v>13</v>
@@ -1670,13 +1662,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5">
         <v>14</v>
@@ -1688,13 +1680,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
@@ -1706,13 +1698,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5">
         <v>16</v>
@@ -1724,13 +1716,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
@@ -1770,7 +1762,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1779,36 +1771,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1836,7 +1828,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1859,36 +1851,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1897,19 +1889,19 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
@@ -1918,19 +1910,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1939,19 +1931,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"',"&amp;D6&amp;",'"&amp;E6&amp;"');"</f>
@@ -1960,19 +1952,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1996,7 +1988,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2018,25 +2010,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2073,7 +2065,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2081,36 +2073,36 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2122,16 +2114,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2143,16 +2135,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2179,7 +2171,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2187,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,24 +2195,24 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2229,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2241,16 +2233,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -2262,16 +2254,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -2295,37 +2287,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B33897C-0A20-47EE-A928-84AFDF6066C2}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -2333,11 +2324,8 @@
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2354,7 +2342,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2373,36 +2361,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2442,47 +2430,47 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -2494,22 +2482,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -2521,22 +2509,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -2548,16 +2536,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -2569,22 +2557,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -2596,22 +2584,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
@@ -2623,19 +2611,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -2647,19 +2635,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -2671,16 +2659,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -2692,22 +2680,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -2719,22 +2707,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -2746,19 +2734,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -2770,19 +2758,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -2794,16 +2782,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -2815,22 +2803,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -2842,22 +2830,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -2869,22 +2857,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -2906,7 +2894,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2921,24 +2909,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2972,7 +2960,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2981,30 +2969,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE405D-03C4-4FA9-A807-6393BA7728ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79C0C5-E513-43C2-9A65-1BBA13A4777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="9" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -975,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A24B-BF25-4784-BAE3-FA6FA6686002}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2952,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3040,7 +3037,7 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3068,7 +3065,7 @@
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3096,7 +3093,6 @@
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="42"/>
       <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
@@ -3119,7 +3115,7 @@
       <c r="D8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3147,7 +3143,7 @@
       <c r="D9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3175,7 +3171,6 @@
       <c r="D10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="42"/>
       <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
@@ -3198,7 +3193,7 @@
       <c r="D11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -3226,7 +3221,6 @@
       <c r="D12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="42"/>
       <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
@@ -3249,7 +3243,7 @@
       <c r="D13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -3277,7 +3271,6 @@
       <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="42"/>
       <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3293,7 @@
       <c r="D15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3328,7 +3321,7 @@
       <c r="D16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -3356,7 +3349,6 @@
       <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="42"/>
       <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
@@ -3379,7 +3371,7 @@
       <c r="D18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -3407,7 +3399,6 @@
       <c r="D19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="42"/>
       <c r="G19" s="3" t="s">
         <v>39</v>
       </c>
@@ -3430,7 +3421,7 @@
       <c r="D20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -3458,7 +3449,6 @@
       <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="42"/>
       <c r="G21" s="3" t="s">
         <v>39</v>
       </c>
@@ -3481,7 +3471,7 @@
       <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -3509,7 +3499,7 @@
       <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3570,7 +3560,7 @@
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79C0C5-E513-43C2-9A65-1BBA13A4777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414F2BA-0432-4F05-B65A-01705CA2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="9" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="170">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,18 @@
   </si>
   <si>
     <t>MENU_0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrQueryInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A24B-BF25-4784-BAE3-FA6FA6686002}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -2947,10 +2959,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3051,7 +3063,7 @@
       </c>
       <c r="I5" s="23"/>
       <c r="K5" s="4" t="str">
-        <f t="shared" ref="K5:K24" si="0">"INSERT INTO "&amp;$B$2&amp;" VALUES('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"');"</f>
+        <f t="shared" ref="K5:K25" si="0">"INSERT INTO "&amp;$B$2&amp;" VALUES('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"');"</f>
         <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
@@ -3541,8 +3553,36 @@
       </c>
       <c r="I24" s="25"/>
       <c r="K24" s="4" t="str">
+        <f t="shared" ref="K24" si="5">"INSERT INTO "&amp;$B$2&amp;" VALUES('"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"','"&amp;I24&amp;"');"</f>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','사용자 권한 부여','MENU_0018','intrAuthInqy3010.do','Y','21','');</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="21">
+        <v>22</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','사용자 권한 부여','MENU_0018','intrAuthInqy3010.do','Y','21','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','1','쿼리 입력','MENU_0018','intrQueryInqy1010.do','Y','22','');</v>
       </c>
     </row>
   </sheetData>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0C140C-EEE1-4C54-B229-D2AABDE35604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE7C38-9BBD-497E-9645-ADAC89AA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="213">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,9 +203,6 @@
     <t>intrAprvInqy2010.do</t>
   </si>
   <si>
-    <t>업무관리</t>
-  </si>
-  <si>
     <t>intrTaskInqy1010.do</t>
   </si>
   <si>
@@ -218,398 +215,582 @@
     <t>intrEmpInqy2010.do</t>
   </si>
   <si>
+    <t>공지사항 관리</t>
+  </si>
+  <si>
+    <t>업무일지 조회</t>
+  </si>
+  <si>
+    <t>intrTaskInqy2010.do</t>
+  </si>
+  <si>
+    <t>결재 관리</t>
+  </si>
+  <si>
+    <t>intrTempInqy1010.do</t>
+  </si>
+  <si>
+    <t>사원 관리</t>
+  </si>
+  <si>
+    <t>intrEmpInqy1010.do</t>
+  </si>
+  <si>
+    <t>시스템 관리</t>
+  </si>
+  <si>
+    <t>권한 관리</t>
+  </si>
+  <si>
+    <t>intrAuthInqy1010.do</t>
+  </si>
+  <si>
+    <t>메뉴 권한 부여</t>
+  </si>
+  <si>
+    <t>intrAuthInqy2010.do</t>
+  </si>
+  <si>
+    <t>사용자 권한 부여</t>
+  </si>
+  <si>
+    <t>intrAuthInqy3010.do</t>
+  </si>
+  <si>
+    <t>MENU_0022</t>
+  </si>
+  <si>
+    <t>쿼리 입력</t>
+  </si>
+  <si>
+    <t>intrQueryInqy1010.do</t>
+  </si>
+  <si>
+    <t>MENU_0023</t>
+  </si>
+  <si>
+    <t>MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrProjInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_0002</t>
+  </si>
+  <si>
+    <t>테스트 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_MALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_0001</t>
+  </si>
+  <si>
+    <t>ORG_0001</t>
+  </si>
+  <si>
+    <t>RANK_0001</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>jtax90@naver.com</t>
+  </si>
+  <si>
+    <t>01077945147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPPR_ORG_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_0002</t>
+  </si>
+  <si>
+    <t>ORG_0003</t>
+  </si>
+  <si>
+    <t>ORG_0004</t>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>RANK_0002</t>
+  </si>
+  <si>
+    <t>RANK_0003</t>
+  </si>
+  <si>
+    <t>RANK_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK_0004</t>
+  </si>
+  <si>
+    <t>RANK_0005</t>
+  </si>
+  <si>
+    <t>RANK_0006</t>
+  </si>
+  <si>
+    <t>RANK_0007</t>
+  </si>
+  <si>
+    <t>RANK_0008</t>
+  </si>
+  <si>
+    <t>RANK_0009</t>
+  </si>
+  <si>
+    <t>RANK_0010</t>
+  </si>
+  <si>
+    <t>ORG_0005</t>
+  </si>
+  <si>
+    <t>ORG_0006</t>
+  </si>
+  <si>
+    <t>ORG_0007</t>
+  </si>
+  <si>
+    <t>ORG_0008</t>
+  </si>
+  <si>
+    <t>ORG_0009</t>
+  </si>
+  <si>
+    <t>ORG_0010</t>
+  </si>
+  <si>
+    <t>ORG_0011</t>
+  </si>
+  <si>
+    <t>경영지원부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무/회계부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보시스템팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질관리부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_0012</t>
+  </si>
+  <si>
+    <t>ORG_0013</t>
+  </si>
+  <si>
+    <t>COMMCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMCODE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMCODE_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMCODE_GCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>결재 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재선 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>보류</t>
+  </si>
+  <si>
+    <t>기안 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0024</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서/직급 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0025</t>
+  </si>
+  <si>
+    <t>MENU_0026</t>
+  </si>
+  <si>
+    <t>MENU_0027</t>
+  </si>
+  <si>
+    <t>MENU_0028</t>
+  </si>
+  <si>
+    <t>업무일지 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrAprvInqy3010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrFaqInqy2010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrFaqInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrMailInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrRoleInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0029</t>
+  </si>
+  <si>
+    <t>MENU_0030</t>
+  </si>
+  <si>
+    <t>MENU_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여휴가 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경조휴가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공유정보 관리</t>
-  </si>
-  <si>
-    <t>공지사항 관리</t>
-  </si>
-  <si>
-    <t>업무일지 조회</t>
-  </si>
-  <si>
-    <t>intrTaskInqy2010.do</t>
-  </si>
-  <si>
-    <t>결재 관리</t>
-  </si>
-  <si>
-    <t>기안문 관리</t>
-  </si>
-  <si>
-    <t>intrTempInqy1010.do</t>
-  </si>
-  <si>
-    <t>사원 관리</t>
-  </si>
-  <si>
-    <t>intrEmpInqy1010.do</t>
-  </si>
-  <si>
-    <t>시스템 관리</t>
-  </si>
-  <si>
-    <t>권한 관리</t>
-  </si>
-  <si>
-    <t>intrAuthInqy1010.do</t>
-  </si>
-  <si>
-    <t>메뉴 권한 부여</t>
-  </si>
-  <si>
-    <t>intrAuthInqy2010.do</t>
-  </si>
-  <si>
-    <t>사용자 권한 부여</t>
-  </si>
-  <si>
-    <t>intrAuthInqy3010.do</t>
-  </si>
-  <si>
-    <t>MENU_0022</t>
-  </si>
-  <si>
-    <t>쿼리 입력</t>
-  </si>
-  <si>
-    <t>intrQueryInqy1010.do</t>
-  </si>
-  <si>
-    <t>MENU_0023</t>
-  </si>
-  <si>
-    <t>MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrProjInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_0002</t>
-  </si>
-  <si>
-    <t>테스트 권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENU_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPINFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANK_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_MALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOB_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIRE_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEAV_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP_0001</t>
-  </si>
-  <si>
-    <t>ORG_0001</t>
-  </si>
-  <si>
-    <t>RANK_0001</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>jtax90@naver.com</t>
-  </si>
-  <si>
-    <t>01077945147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPPR_ORG_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_0002</t>
-  </si>
-  <si>
-    <t>ORG_0003</t>
-  </si>
-  <si>
-    <t>ORG_0004</t>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>RANK_0002</t>
-  </si>
-  <si>
-    <t>RANK_0003</t>
-  </si>
-  <si>
-    <t>RANK_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANK_0004</t>
-  </si>
-  <si>
-    <t>RANK_0005</t>
-  </si>
-  <si>
-    <t>RANK_0006</t>
-  </si>
-  <si>
-    <t>RANK_0007</t>
-  </si>
-  <si>
-    <t>RANK_0008</t>
-  </si>
-  <si>
-    <t>RANK_0009</t>
-  </si>
-  <si>
-    <t>RANK_0010</t>
-  </si>
-  <si>
-    <t>ORG_0005</t>
-  </si>
-  <si>
-    <t>ORG_0006</t>
-  </si>
-  <si>
-    <t>ORG_0007</t>
-  </si>
-  <si>
-    <t>ORG_0008</t>
-  </si>
-  <si>
-    <t>ORG_0009</t>
-  </si>
-  <si>
-    <t>ORG_0010</t>
-  </si>
-  <si>
-    <t>ORG_0011</t>
-  </si>
-  <si>
-    <t>경영지원부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무/회계부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마케팅부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구개발부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객지원팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보시스템팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품질관리부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법무팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_0012</t>
-  </si>
-  <si>
-    <t>ORG_0013</t>
-  </si>
-  <si>
-    <t>COMMCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMCODE_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMCODE_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMCODE_GCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>MENU_0017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENU_0019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재선 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무일지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROC</t>
-  </si>
-  <si>
-    <t>진행</t>
-  </si>
-  <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrStatsInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 조회 (사용 내역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전도금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAV_0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1024,15 +1205,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="15.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
@@ -1042,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1126,7 +1309,7 @@
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J25" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" ref="J4" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
@@ -1138,24 +1321,24 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0003','0','일정관리','MENU_0001','intrScheInqy1010.do','Y','3','');</v>
+        <f t="shared" ref="J5:J32" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0003','0','FAQ','MENU_0001','intrFaqInqy2010.do','N','3','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1166,10 +1349,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
@@ -1178,8 +1365,8 @@
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0004','0','전자결재','','','Y','4','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0004','0','일정관리','MENU_0001','intrScheInqy1010.do','Y','4','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,14 +1377,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1206,8 +1389,8 @@
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0005','0','결재 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0005','0','전자결재','','','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1218,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -1234,8 +1417,8 @@
       </c>
       <c r="H8" s="4"/>
       <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0006','0','결재선 관리','MENU_0004','intrAprvInqy2010.do','Y','6','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0006','0','기안 작성','MENU_0005','intrAprvInqy1010.do','Y','6','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1246,10 +1429,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
@@ -1258,8 +1445,8 @@
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0007','0','업무관리','','','Y','7','');</v>
+        <f t="shared" ref="J9:J10" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0007','0','결재 조회','MENU_0005','intrAprvInqy2010.do','Y','7','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1270,24 +1457,24 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0008','0','업무일지','MENU_0007','intrTaskInqy1010.do','Y','8','');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MENU VALUES('MENU_0008','0','결재선 관리','MENU_0005','intrAprvInqy3010.do','N','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1298,20 +1485,24 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G11" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0009','0','인사정보','','','Y','9','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0009','0','잔여휴가 조회','MENU_0005','intrAprvInqy3010.do','N','8','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1322,14 +1513,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1338,8 +1525,8 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0010','0','연락처','MENU_0009','intrEmpInqy2010.do','Y','10','');</v>
+        <f t="shared" ref="J12" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0010','0','업무일지','','','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1347,23 +1534,27 @@
         <v>24</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','1','공유정보 관리','','','Y','11','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무일지 작성','MENU_0010','intrTaskInqy1010.do','Y','10','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1371,27 +1562,23 @@
         <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0012','1','공지사항 관리','MENU_0011','intrBoardInqy1010.do','Y','12','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0012','0','인사정보','','','Y','11','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,27 +1586,27 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0013','1','업무일지 조회','MENU_0011','intrTaskInqy2010.do','Y','13','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0013','0','연락처','MENU_0012','intrEmpInqy2010.do','Y','12','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1427,23 +1614,27 @@
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G16" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','결재 관리','','','Y','14','');</v>
+        <f t="shared" ref="J16" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0014','0','부서/직급 조회','MENU_0012','intrRoleInqy1010.do','N','13','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1454,24 +1645,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','기안문 관리','MENU_0014','intrTempInqy1010.do','Y','15','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','공유정보 관리','','','Y','14','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1482,24 +1669,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','프로젝트 관리','MENU_0014','intrProjInqy1010.do','Y','16','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','공지사항 관리','MENU_0015','intrBoardInqy1010.do','Y','15','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1510,20 +1697,24 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G19" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','인사정보','','','Y','17','');</v>
+        <f t="shared" ref="J19:J20" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','FAQ 관리','MENU_0015','intrFaqInqy1010.do','N','16','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1534,24 +1725,24 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G20" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','사원 관리','MENU_0017','intrEmpInqy1010.do','Y','18','');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','통계 조회 (사용 내역)','MENU_0015','intrStatsInqy1010.do','N','17','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1562,20 +1753,24 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','시스템 관리','','','Y','19','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','업무일지 조회','MENU_0015','intrTaskInqy2010.do','Y','18','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1586,24 +1781,20 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','권한 관리','MENU_0019','intrAuthInqy1010.do','Y','20','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','결재 관리','','','Y','19','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,80 +1805,268 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','메뉴 권한 부여','MENU_0019','intrAuthInqy2010.do','Y','21','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','양식 관리','MENU_0020','intrTempInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','사용자 권한 부여','MENU_0019','intrAuthInqy3010.do','Y','22','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','프로젝트 관리','MENU_0020','intrProjInqy1010.do','Y','21','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','쿼리 입력','MENU_0019','intrQueryInqy1010.do','Y','23','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','인사정보','','','Y','22','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','사원 관리','MENU_0023','intrEmpInqy1010.do','Y','23','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="4">
+        <v>24</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="J27" s="3" t="str">
+        <f t="shared" ref="J27" si="6">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','메일 전송','MENU_0023','intrMailInqy1010.do','N','24','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="4">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0026','1','시스템 관리','','','Y','25','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="4">
+        <v>26</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0027','1','권한 관리','MENU_0026','intrAuthInqy1010.do','Y','26','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="4">
+        <v>27</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0028','1','메뉴 권한 부여','MENU_0026','intrAuthInqy2010.do','Y','27','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="4">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0029','1','사용자 권한 부여','MENU_0026','intrAuthInqy3010.do','Y','28','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="4">
+        <v>29</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0030','1','쿼리 입력','MENU_0026','intrQueryInqy1010.do','Y','29','');</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +2084,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1716,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1761,10 +2140,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1789,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD6899-63FF-4260-80D6-0650038B0C85}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1803,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1861,7 +2240,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G25" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G30" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0002','Y','2','');</v>
       </c>
     </row>
@@ -2231,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -2250,7 +2629,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -2262,6 +2641,139 @@
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0023','Y','23','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0024','Y','24','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0025','Y','25','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0026','Y','26','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0027','Y','27','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0028','Y','28','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="G31" s="3" t="str">
+        <f t="shared" ref="G31" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A31&amp;"','"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"');"</f>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0029','Y','29','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="G32" s="3" t="str">
+        <f t="shared" ref="G32" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A32&amp;"','"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"');"</f>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0030','Y','30','');</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2801,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2359,7 +2871,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2379,28 +2891,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>2</v>
@@ -2409,43 +2921,43 @@
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L3" s="4">
         <v>20230814</v>
@@ -2484,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2496,13 +3008,13 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -2522,17 +3034,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>20230814</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -2548,17 +3060,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>20230814</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2574,17 +3086,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>20230814</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -2600,17 +3112,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
         <v>20230814</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2626,17 +3138,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>20230814</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -2652,17 +3164,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>20230814</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -2678,17 +3190,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
         <v>20230814</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -2704,17 +3216,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>20230814</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -2730,17 +3242,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <v>20230814</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -2756,17 +3268,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
         <v>20230814</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -2782,17 +3294,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>20230814</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -2808,17 +3320,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>20230814</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -2834,17 +3346,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>20230814</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -2886,7 +3398,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2897,10 +3409,10 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -2920,16 +3432,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4">
         <v>20230814</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
@@ -2945,16 +3457,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4">
         <v>20230814</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
@@ -2970,16 +3482,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4">
         <v>20230814</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>42</v>
@@ -2995,16 +3507,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4">
         <v>20230814</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -3020,16 +3532,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4">
         <v>20230814</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
@@ -3045,16 +3557,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="4">
         <v>20230814</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>42</v>
@@ -3070,16 +3582,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4">
         <v>20230814</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -3095,16 +3607,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4">
         <v>20230814</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
@@ -3120,16 +3632,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4">
         <v>20230814</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -3145,16 +3657,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4">
         <v>20230814</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -3182,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3708,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3208,13 +3720,13 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -3234,13 +3746,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -3257,18 +3769,18 @@
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('Y','Y','USE','20250520','80516','Y','1','');</v>
+        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','use','20250520','80516','Y','1','');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -3285,18 +3797,18 @@
       <c r="H4" s="4"/>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('N','N','USE','20250520','80525','Y','2','');</v>
+        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','use','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -3313,18 +3825,18 @@
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
         <f t="shared" ref="J5:J6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('PROC','진행','STAT','20250520','80525','Y','1','');</v>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','stat','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -3341,18 +3853,18 @@
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO COMMCODE VALUES('END','완료','STAT','20250520','80525','Y','2','');</v>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','stat','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -3369,7 +3881,287 @@
       <c r="H7" s="4"/>
       <c r="J7" s="3" t="str">
         <f t="shared" ref="J7" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('STOP','보류','STAT','20250520','80525','Y','3','');</v>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','stat','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E8" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="3" t="str">
+        <f t="shared" ref="J8:J12" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','leav','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','leav','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E10" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','leav','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E11" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','leav','20250520','80525','Y','4','');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E12" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','leav','20250520','80525','Y','5','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E13" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13" s="3" t="str">
+        <f t="shared" ref="J13:J15" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','pay','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E14" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','pay','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E15" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','pay','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E16" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="J16" s="3" t="str">
+        <f t="shared" ref="J16:J17" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0010','결재','type','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E17" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0020','참조','type','20250520','80525','Y','2','');</v>
       </c>
     </row>
   </sheetData>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE7C38-9BBD-497E-9645-ADAC89AA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02348174-7B32-4D41-B636-458B9BEDC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="216">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,10 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재선 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행</t>
   </si>
   <si>
@@ -587,22 +583,6 @@
     <t>MENU_0024</t>
   </si>
   <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서/직급 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0025</t>
   </si>
   <si>
@@ -619,30 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intrAprvInqy3010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrFaqInqy2010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrFaqInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrMailInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrRoleInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,13 +607,6 @@
   </si>
   <si>
     <t>MENU_0030</t>
-  </si>
-  <si>
-    <t>MENU_0030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔여휴가 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,10 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통계 조회 (사용 내역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,22 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USE_0010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,8 +718,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>기안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재반송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrMtgInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>LEAV</t>
+  </si>
+  <si>
+    <t>PAY</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>STEP</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1321,24 +1327,24 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J32" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0003','0','FAQ','MENU_0001','intrFaqInqy2010.do','N','3','');</v>
+        <f t="shared" ref="J5:J27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="str">
-        <f t="shared" ref="J9:J10" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
+        <f t="shared" ref="J9" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0007','0','결재 조회','MENU_0005','intrAprvInqy2010.do','Y','7','');</v>
       </c>
     </row>
@@ -1457,24 +1463,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MENU VALUES('MENU_0008','0','결재선 관리','MENU_0005','intrAprvInqy3010.do','N','8','');</v>
+        <f t="shared" ref="J10" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0008','0','업무일지','','','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1485,24 +1487,24 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0009','0','잔여휴가 조회','MENU_0005','intrAprvInqy3010.do','N','8','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0009','0','업무일지 작성','MENU_0008','intrTaskInqy1010.do','Y','9','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1513,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1525,8 +1527,8 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
-        <f t="shared" ref="J12" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0010','0','업무일지','','','Y','10','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0010','0','인사정보','','','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1537,24 +1539,24 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무일지 작성','MENU_0010','intrTaskInqy1010.do','Y','10','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','연락처','MENU_0010','intrEmpInqy2010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1562,10 +1564,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1573,12 +1575,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0012','0','인사정보','','','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0012','1','공유정보 관리','','','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1586,27 +1588,27 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0013','0','연락처','MENU_0012','intrEmpInqy2010.do','Y','12','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0013','1','공지사항 관리','MENU_0012','intrBoardInqy1010.do','Y','13','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,27 +1616,27 @@
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
         <f t="shared" ref="J16" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0014','0','부서/직급 조회','MENU_0012','intrRoleInqy1010.do','N','13','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0014','1','통계 조회','MENU_0012','intrStatsInqy1010.do','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,20 +1647,24 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','공유정보 관리','','','Y','14','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,24 +1675,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','공지사항 관리','MENU_0015','intrBoardInqy1010.do','Y','15','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','결재 관리','','','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1697,24 +1699,24 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
-        <f t="shared" ref="J19:J20" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','FAQ 관리','MENU_0015','intrFaqInqy1010.do','N','16','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','양식 관리','MENU_0016','intrTempInqy1010.do','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1725,24 +1727,24 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','통계 조회 (사용 내역)','MENU_0015','intrStatsInqy1010.do','N','17','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','프로젝트 관리','MENU_0016','intrProjInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1753,24 +1755,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','업무일지 조회','MENU_0015','intrTaskInqy2010.do','Y','18','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','인사정보','','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1781,20 +1779,24 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','결재 관리','','','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','사원 관리','MENU_0019','intrEmpInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1805,24 +1807,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','양식 관리','MENU_0020','intrTempInqy1010.do','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','시스템 관리','','','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1833,24 +1831,24 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','프로젝트 관리','MENU_0020','intrProjInqy1010.do','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','권한 관리','MENU_0021','intrAuthInqy1010.do','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1861,212 +1859,80 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','인사정보','','','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','메뉴 권한 부여','MENU_0021','intrAuthInqy2010.do','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','사원 관리','MENU_0023','intrEmpInqy1010.do','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','사용자 권한 부여','MENU_0021','intrAuthInqy3010.do','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="G27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="3" t="str">
-        <f t="shared" ref="J27" si="6">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0025','1','메일 전송','MENU_0023','intrMailInqy1010.do','N','24','');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="4">
-        <v>25</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="J28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0026','1','시스템 관리','','','Y','25','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="4">
-        <v>26</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0027','1','권한 관리','MENU_0026','intrAuthInqy1010.do','Y','26','');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="4">
-        <v>27</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0028','1','메뉴 권한 부여','MENU_0026','intrAuthInqy2010.do','Y','27','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="4">
-        <v>28</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0029','1','사용자 권한 부여','MENU_0026','intrAuthInqy3010.do','Y','28','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="4">
-        <v>29</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0030','1','쿼리 입력','MENU_0026','intrQueryInqy1010.do','Y','29','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','쿼리 입력','MENU_0021','intrQueryInqy1010.do','Y','25','');</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2514,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -2667,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -2686,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -2705,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -2724,7 +2590,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
@@ -2743,7 +2609,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
@@ -2762,7 +2628,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>14</v>
@@ -3694,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3746,13 +3612,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -3769,18 +3635,18 @@
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','use','20250520','80516','Y','1','');</v>
+        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','USE','20250520','80516','Y','1','');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -3796,19 +3662,19 @@
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','use','20250520','80525','Y','2','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','USE','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -3824,19 +3690,19 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','stat','20250520','80525','Y','1','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','STAT','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -3852,19 +3718,19 @@
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','stat','20250520','80525','Y','2','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','STAT','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -3880,19 +3746,19 @@
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="3" t="str">
-        <f t="shared" ref="J7" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','stat','20250520','80525','Y','3','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','STAT','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4">
         <v>20250520</v>
@@ -3908,19 +3774,19 @@
       </c>
       <c r="H8" s="4"/>
       <c r="J8" s="3" t="str">
-        <f t="shared" ref="J8:J12" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','leav','20250520','80525','Y','1','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','LEAV','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D9" s="4">
         <v>20250520</v>
@@ -3936,19 +3802,19 @@
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','leav','20250520','80525','Y','2','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','LEAV','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D10" s="4">
         <v>20250520</v>
@@ -3964,19 +3830,19 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','leav','20250520','80525','Y','3','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','LEAV','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D11" s="4">
         <v>20250520</v>
@@ -3992,19 +3858,19 @@
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','leav','20250520','80525','Y','4','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','LEAV','20250520','80525','Y','4','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D12" s="4">
         <v>20250520</v>
@@ -4020,19 +3886,19 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','leav','20250520','80525','Y','5','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','LEAV','20250520','80525','Y','5','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4">
         <v>20250520</v>
@@ -4048,19 +3914,19 @@
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
-        <f t="shared" ref="J13:J15" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','pay','20250520','80525','Y','1','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','PAY','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D14" s="4">
         <v>20250520</v>
@@ -4076,19 +3942,19 @@
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','pay','20250520','80525','Y','2','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A14&amp;"','"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','PAY','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4">
         <v>20250520</v>
@@ -4104,19 +3970,19 @@
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','pay','20250520','80525','Y','3','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','PAY','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" s="4">
         <v>20250520</v>
@@ -4132,19 +3998,19 @@
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f t="shared" ref="J16:J17" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('TYPE_0010','결재','type','20250520','80525','Y','1','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0010','기안','TYPE','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" s="4">
         <v>20250520</v>
@@ -4160,8 +4026,176 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO COMMCODE VALUES('TYPE_0020','참조','type','20250520','80525','Y','2','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0020','결재','TYPE','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E18" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="J18" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A18&amp;"','"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0030','참조','TYPE','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E19" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="J19" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('REQ_0010','반입','REQ','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E20" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="J20" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('REQ_0020','반출','REQ','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E21" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A21&amp;"','"&amp;B21&amp;"','"&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"','"&amp;F21&amp;"','"&amp;G21&amp;"','"&amp;H21&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0010','결재진행중','STEP','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E22" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A22&amp;"','"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"','"&amp;F22&amp;"','"&amp;G22&amp;"','"&amp;H22&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0020','결재완료','STEP','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A23&amp;"','"&amp;B23&amp;"','"&amp;C23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"','"&amp;F23&amp;"','"&amp;G23&amp;"','"&amp;H23&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0030','결재반송','STEP','20250520','80525','Y','3','');</v>
       </c>
     </row>
   </sheetData>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02348174-7B32-4D41-B636-458B9BEDC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B2B21-68C9-47A0-988D-5C1F1EDA97D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="224">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intrStatsInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,10 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통계 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회의관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +789,46 @@
   </si>
   <si>
     <t>STEP</t>
+  </si>
+  <si>
+    <t>STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSLT_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSLT_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSLT_0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1211,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1343,7 +1375,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" ref="J5:J26" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
@@ -1619,24 +1651,24 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f t="shared" ref="J16" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','통계 조회','MENU_0012','intrStatsInqy1010.do','Y','14','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0014','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1647,24 +1679,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','결재 관리','','','Y','16','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1675,20 +1703,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','결재 관리','','','Y','16','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','양식 관리','MENU_0015','intrTempInqy1010.do','Y','17','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1699,24 +1731,24 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','양식 관리','MENU_0016','intrTempInqy1010.do','Y','17','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','프로젝트 관리','MENU_0015','intrProjInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1727,24 +1759,20 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','프로젝트 관리','MENU_0016','intrProjInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','인사정보','','','Y','19','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,20 +1783,24 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','인사정보','','','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','사원 관리','MENU_0018','intrEmpInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,24 +1811,20 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','사원 관리','MENU_0019','intrEmpInqy1010.do','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','시스템 관리','','','Y','21','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1807,20 +1835,24 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','시스템 관리','','','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','권한 관리','MENU_0020','intrAuthInqy1010.do','Y','22','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1831,24 +1863,24 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','권한 관리','MENU_0021','intrAuthInqy1010.do','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','메뉴 권한 부여','MENU_0020','intrAuthInqy2010.do','Y','23','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1859,24 +1891,24 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','메뉴 권한 부여','MENU_0021','intrAuthInqy2010.do','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','사용자 권한 부여','MENU_0020','intrAuthInqy3010.do','Y','24','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1887,52 +1919,24 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','사용자 권한 부여','MENU_0021','intrAuthInqy3010.do','Y','24','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="4">
-        <v>25</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0025','1','쿼리 입력','MENU_0021','intrQueryInqy1010.do','Y','25','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','쿼리 입력','MENU_0020','intrQueryInqy1010.do','Y','25','');</v>
       </c>
     </row>
   </sheetData>
@@ -3560,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3612,13 +3616,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -3634,19 +3638,19 @@
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
+        <f t="shared" ref="J3:J23" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
         <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','USE','20250520','80516','Y','1','');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -3662,19 +3666,19 @@
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('USE_0020','N','USE','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -3690,19 +3694,19 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','STAT','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -3718,19 +3722,19 @@
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','STAT','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -3746,19 +3750,19 @@
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','STAT','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="4">
         <v>20250520</v>
@@ -3774,19 +3778,19 @@
       </c>
       <c r="H8" s="4"/>
       <c r="J8" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','LEAV','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D9" s="4">
         <v>20250520</v>
@@ -3802,19 +3806,19 @@
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','LEAV','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" s="4">
         <v>20250520</v>
@@ -3830,19 +3834,19 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','LEAV','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="4">
         <v>20250520</v>
@@ -3858,19 +3862,19 @@
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','LEAV','20250520','80525','Y','4','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="4">
         <v>20250520</v>
@@ -3886,19 +3890,19 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','LEAV','20250520','80525','Y','5','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="4">
         <v>20250520</v>
@@ -3914,19 +3918,19 @@
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','PAY','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="4">
         <v>20250520</v>
@@ -3942,19 +3946,19 @@
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A14&amp;"','"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','PAY','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="4">
         <v>20250520</v>
@@ -3970,19 +3974,19 @@
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','PAY','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="4">
         <v>20250520</v>
@@ -3998,19 +4002,19 @@
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('TYPE_0010','기안','TYPE','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>20250520</v>
@@ -4026,19 +4030,19 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('TYPE_0020','결재','TYPE','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" s="4">
         <v>20250520</v>
@@ -4054,19 +4058,19 @@
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A18&amp;"','"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('TYPE_0030','참조','TYPE','20250520','80525','Y','3','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="4">
         <v>20250520</v>
@@ -4082,19 +4086,19 @@
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('REQ_0010','반입','REQ','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="4">
         <v>20250520</v>
@@ -4110,19 +4114,19 @@
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('REQ_0020','반출','REQ','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="4">
         <v>20250520</v>
@@ -4138,19 +4142,19 @@
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A21&amp;"','"&amp;B21&amp;"','"&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"','"&amp;F21&amp;"','"&amp;G21&amp;"','"&amp;H21&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STEP_0010','결재진행중','STEP','20250520','80525','Y','1','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D22" s="4">
         <v>20250520</v>
@@ -4166,19 +4170,19 @@
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A22&amp;"','"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"','"&amp;F22&amp;"','"&amp;G22&amp;"','"&amp;H22&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STEP_0020','결재완료','STEP','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" s="4">
         <v>20250520</v>
@@ -4194,8 +4198,120 @@
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A23&amp;"','"&amp;B23&amp;"','"&amp;C23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"','"&amp;F23&amp;"','"&amp;G23&amp;"','"&amp;H23&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO COMMCODE VALUES('STEP_0030','결재반송','STEP','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24" s="3" t="str">
+        <f t="shared" ref="J24" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A24&amp;"','"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0040','결재취소','STEP','20250520','80525','Y','4','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E25" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25" s="3" t="str">
+        <f t="shared" ref="J25:J26" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A25&amp;"','"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"','"&amp;F25&amp;"','"&amp;G25&amp;"','"&amp;H25&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0010','승인','RSLT','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E26" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0020','반송','RSLT','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E27" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="J27" s="3" t="str">
+        <f t="shared" ref="J27" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0030','취소','RSLT','20250520','80525','Y','3','');</v>
       </c>
     </row>
   </sheetData>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B2B21-68C9-47A0-988D-5C1F1EDA97D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCFC67C-F340-418F-825E-28117F1A22A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="7" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="3" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,9 +348,6 @@
     <t>ADMIN</t>
   </si>
   <si>
-    <t>주소</t>
-  </si>
-  <si>
     <t>jtax90@naver.com</t>
   </si>
   <si>
@@ -583,18 +580,6 @@
     <t>MENU_0024</t>
   </si>
   <si>
-    <t>MENU_0025</t>
-  </si>
-  <si>
-    <t>MENU_0026</t>
-  </si>
-  <si>
-    <t>MENU_0027</t>
-  </si>
-  <si>
-    <t>MENU_0028</t>
-  </si>
-  <si>
     <t>업무일지 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,13 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MENU_0029</t>
-  </si>
-  <si>
-    <t>MENU_0030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,6 +806,10 @@
   </si>
   <si>
     <t>결재취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1439,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1467,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1495,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1519,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -1599,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1703,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -1731,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
@@ -1913,7 +1895,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2038,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD6899-63FF-4260-80D6-0650038B0C85}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2110,7 +2092,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G30" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G26" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0002','Y','2','');</v>
       </c>
     </row>
@@ -2518,7 +2500,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -2530,120 +2512,6 @@
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0024','Y','24','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0025','Y','25','');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4">
-        <v>26</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="G28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0026','Y','26','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4">
-        <v>27</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="G29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0027','Y','27','');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4">
-        <v>28</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="G30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0028','Y','28','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4">
-        <v>29</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="G31" s="3" t="str">
-        <f t="shared" ref="G31" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A31&amp;"','"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"');"</f>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0029','Y','29','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4">
-        <v>30</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="G32" s="3" t="str">
-        <f t="shared" ref="G32" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A32&amp;"','"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"');"</f>
-        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0030','Y','30','');</v>
       </c>
     </row>
   </sheetData>
@@ -2659,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA9AF96-CE3B-41AB-9DDC-5AA744CB4F93}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2699,8 +2567,8 @@
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>42</v>
@@ -2711,7 +2579,7 @@
       <c r="E3" s="4"/>
       <c r="G3" s="3" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO EMP_AUTH VALUES('AUTH_0001','0','Y','1','');</v>
+        <v>INSERT INTO EMP_AUTH VALUES('AUTH_0001','EMP_0001','Y','1','');</v>
       </c>
     </row>
   </sheetData>
@@ -2727,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAA20B7-DA26-42F7-961E-68EFA3ABBD71}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2814,14 +2682,12 @@
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>92</v>
@@ -2835,7 +2701,7 @@
       <c r="M3" s="4"/>
       <c r="O3" s="3" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"');"</f>
-        <v>INSERT INTO EMPINFO VALUES('EMP_0001','ORG_0001','RANK_0001','ADMIN','Y','01077945147','','주소','jtax90@naver.com','ADMIN','ADMIN','20230814','');</v>
+        <v>INSERT INTO EMPINFO VALUES('EMP_0001','ORG_0001','RANK_0001','ADMIN','Y','01077945147','','','jtax90@naver.com','ADMIN','ADMIN','20230814','');</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2881,10 +2747,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -2907,14 +2773,14 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>20230814</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -2930,17 +2796,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>20230814</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2956,17 +2822,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>20230814</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -2982,17 +2848,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
         <v>20230814</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3008,17 +2874,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>20230814</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3034,17 +2900,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>20230814</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -3060,17 +2926,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
         <v>20230814</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3086,17 +2952,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>20230814</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -3112,17 +2978,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <v>20230814</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -3138,17 +3004,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
         <v>20230814</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -3164,17 +3030,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>20230814</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -3190,17 +3056,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>20230814</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -3216,17 +3082,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>20230814</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -3268,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3282,7 +3148,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -3305,13 +3171,13 @@
         <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
         <v>20230814</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
@@ -3327,16 +3193,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4">
         <v>20230814</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
@@ -3352,16 +3218,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4">
         <v>20230814</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>42</v>
@@ -3377,16 +3243,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4">
         <v>20230814</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -3402,16 +3268,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4">
         <v>20230814</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
@@ -3427,16 +3293,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4">
         <v>20230814</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>42</v>
@@ -3452,16 +3318,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4">
         <v>20230814</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -3477,16 +3343,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4">
         <v>20230814</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
@@ -3502,16 +3368,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4">
         <v>20230814</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -3527,16 +3393,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4">
         <v>20230814</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -3566,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3578,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3590,13 +3456,13 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -3616,13 +3482,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -3644,13 +3510,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -3672,13 +3538,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -3700,13 +3566,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -3728,13 +3594,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -3756,13 +3622,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D8" s="4">
         <v>20250520</v>
@@ -3784,13 +3650,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D9" s="4">
         <v>20250520</v>
@@ -3812,13 +3678,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D10" s="4">
         <v>20250520</v>
@@ -3840,13 +3706,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D11" s="4">
         <v>20250520</v>
@@ -3868,13 +3734,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D12" s="4">
         <v>20250520</v>
@@ -3896,13 +3762,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4">
         <v>20250520</v>
@@ -3924,13 +3790,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4">
         <v>20250520</v>
@@ -3952,13 +3818,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4">
         <v>20250520</v>
@@ -3980,13 +3846,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D16" s="4">
         <v>20250520</v>
@@ -4008,13 +3874,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D17" s="4">
         <v>20250520</v>
@@ -4036,13 +3902,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D18" s="4">
         <v>20250520</v>
@@ -4064,13 +3930,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D19" s="4">
         <v>20250520</v>
@@ -4092,13 +3958,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D20" s="4">
         <v>20250520</v>
@@ -4120,13 +3986,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4">
         <v>20250520</v>
@@ -4148,13 +4014,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D22" s="4">
         <v>20250520</v>
@@ -4176,13 +4042,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4">
         <v>20250520</v>
@@ -4204,13 +4070,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D24" s="4">
         <v>20250520</v>
@@ -4232,13 +4098,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4">
         <v>20250520</v>
@@ -4260,13 +4126,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D26" s="4">
         <v>20250520</v>
@@ -4288,13 +4154,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D27" s="4">
         <v>20250520</v>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCFC67C-F340-418F-825E-28117F1A22A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D73AC-A9FB-40CF-A4E9-22612AF0ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="3" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,9 +209,6 @@
     <t>인사정보</t>
   </si>
   <si>
-    <t>연락처</t>
-  </si>
-  <si>
     <t>intrEmpInqy2010.do</t>
   </si>
   <si>
@@ -810,6 +807,25 @@
   </si>
   <si>
     <t>EMP_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0025</t>
+  </si>
+  <si>
+    <t>MENU_0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrBanrInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1261,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1341,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1357,7 +1373,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J26" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" ref="J5:J27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
@@ -1421,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1449,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1477,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1501,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -1553,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -1570,7 +1586,7 @@
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','연락처','MENU_0010','intrEmpInqy2010.do','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','사원 조회','MENU_0010','intrEmpInqy2010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1581,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1605,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
@@ -1621,7 +1637,7 @@
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0013','1','공지사항 관리','MENU_0012','intrBoardInqy1010.do','Y','13','');</v>
       </c>
     </row>
@@ -1633,24 +1649,24 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0014','1','배너 관리','MENU_0012','intrBanrInqy1010.do','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1661,20 +1677,24 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','결재 관리','','','Y','16','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1685,24 +1705,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','양식 관리','MENU_0015','intrTempInqy1010.do','Y','17','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','결재 관리','','','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1713,24 +1729,24 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','프로젝트 관리','MENU_0015','intrProjInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','양식 관리','MENU_0016','intrTempInqy1010.do','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,20 +1757,24 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','인사정보','','','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','프로젝트 관리','MENU_0016','intrProjInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1765,24 +1785,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','사원 관리','MENU_0018','intrEmpInqy1010.do','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','인사정보','','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1793,20 +1809,24 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','시스템 관리','','','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','사원 관리','MENU_0019','intrEmpInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1817,108 +1837,132 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','권한 관리','MENU_0020','intrAuthInqy1010.do','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','시스템 관리','','','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','메뉴 권한 부여','MENU_0020','intrAuthInqy2010.do','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','권한 관리','MENU_0021','intrAuthInqy1010.do','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','사용자 권한 부여','MENU_0020','intrAuthInqy3010.do','Y','24','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','메뉴 권한 부여','MENU_0021','intrAuthInqy2010.do','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','쿼리 입력','MENU_0020','intrQueryInqy1010.do','Y','25','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','사용자 권한 부여','MENU_0021','intrAuthInqy3010.do','Y','24','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4">
+        <v>25</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','쿼리 입력','MENU_0021','intrQueryInqy1010.do','Y','25','');</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1992,10 +2036,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -2020,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD6899-63FF-4260-80D6-0650038B0C85}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2462,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -2481,7 +2525,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -2500,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -2512,6 +2556,25 @@
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0024','Y','24','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ref="G27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"');"</f>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0025','Y','25','');</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA9AF96-CE3B-41AB-9DDC-5AA744CB4F93}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2602,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2568,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>42</v>
@@ -2609,7 +2672,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2629,28 +2692,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>2</v>
@@ -2659,41 +2722,41 @@
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="4">
         <v>20230814</v>
@@ -2732,7 +2795,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2744,13 +2807,13 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -2770,17 +2833,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>20230814</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -2796,17 +2859,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>20230814</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2822,17 +2885,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>20230814</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -2848,17 +2911,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
         <v>20230814</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2874,17 +2937,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>20230814</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -2900,17 +2963,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>20230814</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -2926,17 +2989,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
         <v>20230814</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -2952,17 +3015,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>20230814</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -2978,17 +3041,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <v>20230814</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -3004,17 +3067,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
         <v>20230814</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -3030,17 +3093,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>20230814</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -3056,17 +3119,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>20230814</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -3082,17 +3145,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>20230814</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -3134,7 +3197,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3145,10 +3208,10 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -3168,16 +3231,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4">
         <v>20230814</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
@@ -3193,16 +3256,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4">
         <v>20230814</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
@@ -3218,16 +3281,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4">
         <v>20230814</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>42</v>
@@ -3243,16 +3306,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4">
         <v>20230814</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -3268,16 +3331,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4">
         <v>20230814</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
@@ -3293,16 +3356,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4">
         <v>20230814</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>42</v>
@@ -3318,16 +3381,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4">
         <v>20230814</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -3343,16 +3406,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4">
         <v>20230814</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
@@ -3368,16 +3431,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <v>20230814</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -3393,16 +3456,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4">
         <v>20230814</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -3444,7 +3507,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3456,13 +3519,13 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -3482,13 +3545,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -3510,13 +3573,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -3538,13 +3601,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -3566,13 +3629,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -3594,13 +3657,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -3622,13 +3685,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="4">
         <v>20250520</v>
@@ -3650,13 +3713,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>20250520</v>
@@ -3678,13 +3741,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="4">
         <v>20250520</v>
@@ -3706,13 +3769,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="4">
         <v>20250520</v>
@@ -3734,13 +3797,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="4">
         <v>20250520</v>
@@ -3762,13 +3825,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="4">
         <v>20250520</v>
@@ -3790,13 +3853,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="4">
         <v>20250520</v>
@@ -3818,13 +3881,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="4">
         <v>20250520</v>
@@ -3846,13 +3909,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4">
         <v>20250520</v>
@@ -3874,13 +3937,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4">
         <v>20250520</v>
@@ -3902,13 +3965,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4">
         <v>20250520</v>
@@ -3930,13 +3993,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="4">
         <v>20250520</v>
@@ -3958,13 +4021,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="4">
         <v>20250520</v>
@@ -3986,13 +4049,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="4">
         <v>20250520</v>
@@ -4014,13 +4077,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="4">
         <v>20250520</v>
@@ -4042,13 +4105,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="4">
         <v>20250520</v>
@@ -4070,13 +4133,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4">
         <v>20250520</v>
@@ -4098,13 +4161,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4">
         <v>20250520</v>
@@ -4126,13 +4189,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="4">
         <v>20250520</v>
@@ -4154,13 +4217,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="4">
         <v>20250520</v>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D73AC-A9FB-40CF-A4E9-22612AF0ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355ADB04-EBB6-46D0-84C9-FB294BE118D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,6 +826,20 @@
   </si>
   <si>
     <t>intrBanrInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0026</t>
+  </si>
+  <si>
+    <t>MENU_0027</t>
+  </si>
+  <si>
+    <t>배치 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1387,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" ref="J5:J29" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
@@ -1505,7 +1519,7 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f t="shared" ref="J10" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
+        <f t="shared" ref="J10:J11" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0008','0','업무일지','','','Y','8','');</v>
       </c>
     </row>
@@ -1533,7 +1547,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MENU VALUES('MENU_0009','0','업무일지 작성','MENU_0008','intrTaskInqy1010.do','Y','9','');</v>
       </c>
     </row>
@@ -1545,10 +1559,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1558,7 +1576,7 @@
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0010','0','인사정보','','','Y','10','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0010','0','업무 캘린더','MENU_0008','intrTaskInqy1010.do','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1569,14 +1587,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1586,7 +1600,7 @@
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','사원 조회','MENU_0010','intrEmpInqy2010.do','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','인사정보','','','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1594,13 +1608,17 @@
         <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1628,7 @@
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0012','1','공유정보 관리','','','Y','12','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0012','0','사원 조회','MENU_0011','intrEmpInqy2010.do','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1621,14 +1639,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1637,8 +1651,8 @@
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f t="shared" ref="J15" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0013','1','공지사항 관리','MENU_0012','intrBoardInqy1010.do','Y','13','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0013','1','공유정보 관리','','','Y','13','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1649,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -1665,8 +1679,8 @@
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','배너 관리','MENU_0012','intrBanrInqy1010.do','Y','14','');</v>
+        <f t="shared" ref="J16" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0014','1','공지사항 관리','MENU_0013','intrBoardInqy1010.do','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1677,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>42</v>
@@ -1694,7 +1708,7 @@
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','업무일지 조회','MENU_0012','intrTaskInqy2010.do','Y','15','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','배너 관리','MENU_0013','intrBanrInqy1010.do','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1705,10 +1719,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1736,7 @@
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','결재 관리','','','Y','16','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','업무일지 조회','MENU_0013','intrTaskInqy2010.do','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1729,14 +1747,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1760,7 @@
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','양식 관리','MENU_0016','intrTempInqy1010.do','Y','17','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','결재 관리','','','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1757,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>42</v>
@@ -1774,7 +1788,7 @@
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','프로젝트 관리','MENU_0016','intrProjInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','양식 관리','MENU_0017','intrTempInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,10 +1799,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1798,7 +1816,7 @@
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','인사정보','','','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','프로젝트 관리','MENU_0017','intrProjInqy1010.do','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1809,14 +1827,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1826,7 +1840,7 @@
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','사원 관리','MENU_0019','intrEmpInqy1010.do','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','인사정보','','','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1837,10 +1851,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1850,7 +1868,7 @@
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','시스템 관리','','','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','사원 관리','MENU_0020','intrEmpInqy1010.do','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1861,14 +1879,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1878,7 +1892,7 @@
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','권한 관리','MENU_0021','intrAuthInqy1010.do','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','시스템 관리','','','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1889,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
@@ -1906,7 +1920,7 @@
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','메뉴 권한 부여','MENU_0021','intrAuthInqy2010.do','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','권한 관리','MENU_0022','intrAuthInqy1010.do','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1917,13 +1931,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
@@ -1934,7 +1948,7 @@
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','사용자 권한 부여','MENU_0021','intrAuthInqy3010.do','Y','24','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','메뉴 권한 부여','MENU_0022','intrAuthInqy2010.do','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>42</v>
@@ -1961,8 +1975,64 @@
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="3" t="str">
+        <f t="shared" ref="J27" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','사용자 권한 부여','MENU_0022','intrAuthInqy3010.do','Y','25','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="4">
+        <v>26</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="J28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0025','1','쿼리 입력','MENU_0021','intrQueryInqy1010.do','Y','25','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0026','1','배치 관리','MENU_0022','intrAuthInqy3010.do','Y','26','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="4">
+        <v>27</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0027','1','쿼리 입력','MENU_0022','intrQueryInqy1010.do','Y','27','');</v>
       </c>
     </row>
   </sheetData>
@@ -2064,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD6899-63FF-4260-80D6-0650038B0C85}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2575,6 +2645,44 @@
       <c r="G27" s="3" t="str">
         <f t="shared" ref="G27" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"');"</f>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0025','Y','25','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G29" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A28&amp;"','"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"');"</f>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0026','Y','26','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0027','Y','27','');</v>
       </c>
     </row>
   </sheetData>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355ADB04-EBB6-46D0-84C9-FB294BE118D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8F2A83-0319-4794-9EBE-005E28F7D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="229">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +840,17 @@
   </si>
   <si>
     <t>배치 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrQnaInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0028</t>
+  </si>
+  <si>
+    <t>결재선 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1398,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J29" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" ref="J5:J30" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
@@ -1415,7 +1426,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J6" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0004','0','일정관리','MENU_0001','intrScheInqy1010.do','Y','4','');</v>
       </c>
     </row>
@@ -1495,7 +1506,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="str">
-        <f t="shared" ref="J9" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
+        <f t="shared" ref="J9" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0007','0','결재 조회','MENU_0005','intrAprvInqy2010.do','Y','7','');</v>
       </c>
     </row>
@@ -1507,10 +1518,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1519,8 +1534,8 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
-        <f t="shared" ref="J10:J11" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0008','0','업무일지','','','Y','8','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0008','0','결재선 관리','MENU_0005','intrQnaInqy1010.do','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1531,14 +1546,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1547,8 +1558,8 @@
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MENU VALUES('MENU_0009','0','업무일지 작성','MENU_0008','intrTaskInqy1010.do','Y','9','');</v>
+        <f t="shared" ref="J11:J12" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0009','0','업무일지','','','Y','9','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1559,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -1575,8 +1586,8 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0010','0','업무 캘린더','MENU_0008','intrTaskInqy1010.do','Y','10','');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MENU VALUES('MENU_0010','0','업무일지 작성','MENU_0009','intrTaskInqy1010.do','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1587,10 +1598,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1615,7 @@
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','인사정보','','','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무 캘린더','MENU_0009','intrTaskInqy1010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1611,14 +1626,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1639,7 @@
       <c r="H14" s="4"/>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0012','0','사원 조회','MENU_0011','intrEmpInqy2010.do','Y','12','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0012','0','인사정보','','','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1636,13 +1647,17 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1652,7 +1667,7 @@
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0013','1','공유정보 관리','','','Y','13','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0013','0','사원 조회','MENU_0012','intrEmpInqy2010.do','Y','13','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1663,14 +1678,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1679,8 +1690,8 @@
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
-        <f t="shared" ref="J16" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','공지사항 관리','MENU_0013','intrBoardInqy1010.do','Y','14','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0014','1','공유정보 관리','','','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1691,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>42</v>
@@ -1707,8 +1718,8 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','배너 관리','MENU_0013','intrBanrInqy1010.do','Y','15','');</v>
+        <f t="shared" ref="J17" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','공지사항 관리','MENU_0014','intrBoardInqy1010.do','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1719,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
@@ -1736,7 +1747,7 @@
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','업무일지 조회','MENU_0013','intrTaskInqy2010.do','Y','16','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','배너 관리','MENU_0014','intrBanrInqy1010.do','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1747,10 +1758,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1759,8 +1774,8 @@
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','결재 관리','','','Y','17','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','업무일지 조회','MENU_0014','intrTaskInqy2010.do','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1771,14 +1786,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
@@ -1788,7 +1799,7 @@
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','양식 관리','MENU_0017','intrTempInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','결재 관리','','','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1799,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>42</v>
@@ -1816,7 +1827,7 @@
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','프로젝트 관리','MENU_0017','intrProjInqy1010.do','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','양식 관리','MENU_0018','intrTempInqy1010.do','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1827,10 +1838,14 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1855,7 @@
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','인사정보','','','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','프로젝트 관리','MENU_0018','intrProjInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1851,14 +1866,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1879,7 @@
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','사원 관리','MENU_0020','intrEmpInqy1010.do','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','인사정보','','','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1879,10 +1890,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1892,7 +1907,7 @@
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','시스템 관리','','','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','사원 관리','MENU_0021','intrEmpInqy1010.do','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1903,14 +1918,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +1931,7 @@
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','권한 관리','MENU_0022','intrAuthInqy1010.do','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','시스템 관리','','','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1931,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
@@ -1948,7 +1959,7 @@
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','메뉴 권한 부여','MENU_0022','intrAuthInqy2010.do','Y','24','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','권한 관리','MENU_0023','intrAuthInqy1010.do','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1959,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>42</v>
@@ -1975,8 +1986,8 @@
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="3" t="str">
-        <f t="shared" ref="J27" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0025','1','사용자 권한 부여','MENU_0022','intrAuthInqy3010.do','Y','25','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','메뉴 권한 부여','MENU_0023','intrAuthInqy2010.do','Y','25','');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1987,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>66</v>
@@ -2003,8 +2014,8 @@
       </c>
       <c r="H28" s="4"/>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0026','1','배치 관리','MENU_0022','intrAuthInqy3010.do','Y','26','');</v>
+        <f t="shared" ref="J28" si="6">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A28&amp;"','"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"','"&amp;F28&amp;"','"&amp;G28&amp;"','"&amp;H28&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0026','1','사용자 권한 부여','MENU_0023','intrAuthInqy3010.do','Y','26','');</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2015,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>42</v>
@@ -2032,7 +2043,35 @@
       <c r="H29" s="4"/>
       <c r="J29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0027','1','쿼리 입력','MENU_0022','intrQueryInqy1010.do','Y','27','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0027','1','배치 관리','MENU_0023','intrAuthInqy3010.do','Y','27','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="4">
+        <v>28</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0028','1','쿼리 입력','MENU_0022','intrQueryInqy1010.do','Y','28','');</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3643,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8F2A83-0319-4794-9EBE-005E28F7D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831DBCB-9C18-4A97-8D63-5A947798B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="EMPINFO" sheetId="22" r:id="rId5"/>
     <sheet name="ORG" sheetId="25" r:id="rId6"/>
     <sheet name="RANK" sheetId="26" r:id="rId7"/>
-    <sheet name="COMMCODE" sheetId="23" r:id="rId8"/>
+    <sheet name="TEMPLATE" sheetId="27" r:id="rId8"/>
+    <sheet name="COMMCODE" sheetId="23" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="253">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,18 +840,309 @@
     <t>MENU_0027</t>
   </si>
   <si>
-    <t>배치 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrQnaInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>결재선 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당업무 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrEmpInqy3010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrEmpInqy4010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MENU_0028</t>
   </si>
   <si>
-    <t>결재선 관리</t>
+    <t>MENU_0029</t>
+  </si>
+  <si>
+    <t>MENU_0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_0029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrScheInqy2010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_CONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPTYPE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지급결의서</t>
+  </si>
+  <si>
+    <t>법인카드 정산서</t>
+  </si>
+  <si>
+    <t>물품반출입 신청서</t>
+  </si>
+  <si>
+    <t>휴가 신청서</t>
+  </si>
+  <si>
+    <t>TEMP_0001</t>
+  </si>
+  <si>
+    <t>TEMP_0002</t>
+  </si>
+  <si>
+    <t>TEMP_0003</t>
+  </si>
+  <si>
+    <t>TEMP_0004</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;휴가 신청서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;구 &amp;nbsp;분&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;( ) 연차 ( ) 병가 ( ) 경조휴가 ( ) 반차 ( ) 기타&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;기 &amp;nbsp;간&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일 ~ OOOO년 OO월 OO일 (O일간)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 휴가를 신청하오니 허락하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;가지급결의서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;청구 금액&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p&gt;&lt;span style="font-size:13.3333px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;일금 (\&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;지급 방법&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;( ) 현금 ( ) 개인카드 ( ) 전도금&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;지급 일자&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위의 금액을 정히 청구하오니 지급하여 주십시오.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;물품반출입 신청서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;구&amp;nbsp; 분&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;물&amp;nbsp; 품&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;반출일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 물품반출입을 신청하오니 허락하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;법인카드 정산서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 함&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;사용 카드&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" rowspan="1" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;(카드 회사 / 번호)&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;사용 기간&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일 ~ OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; 총 사용금액&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;(\&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; )&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 법인카드 월간 사용금액을 보고하오니 확인하여 주십시오.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +1243,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,7 +1693,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
-        <f t="shared" ref="J5:J30" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
+        <f t="shared" ref="J5:J31" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
@@ -1518,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1604,7 +1899,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -1615,7 +1910,7 @@
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무 캘린더','MENU_0009','intrTaskInqy1010.do','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무 캘린더','MENU_0009','intrScheInqy2010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1666,7 +1961,7 @@
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"');"</f>
         <v>INSERT INTO MENU VALUES('MENU_0013','0','사원 조회','MENU_0012','intrEmpInqy2010.do','Y','13','');</v>
       </c>
     </row>
@@ -1675,13 +1970,17 @@
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1691,7 +1990,7 @@
       <c r="H16" s="4"/>
       <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0014','1','공유정보 관리','','','Y','14','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0014','0','담당업무 조회','MENU_0012','intrEmpInqy3010.do','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1702,14 +2001,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1718,8 +2013,8 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="3" t="str">
-        <f t="shared" ref="J17" si="5">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0015','1','공지사항 관리','MENU_0014','intrBoardInqy1010.do','Y','15','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0015','1','공유정보 관리','','','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1730,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
@@ -1746,8 +2041,8 @@
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0016','1','배너 관리','MENU_0014','intrBanrInqy1010.do','Y','16','');</v>
+        <f t="shared" ref="J18" si="6">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A18&amp;"','"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0016','1','공지사항 관리','MENU_0015','intrBoardInqy1010.do','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1758,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
@@ -1774,8 +2069,8 @@
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="3" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0017','1','업무일지 조회','MENU_0014','intrTaskInqy2010.do','Y','17','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0017','1','배너 관리','MENU_0015','intrBanrInqy1010.do','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1786,10 +2081,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
@@ -1798,8 +2097,8 @@
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0018','1','결재 관리','','','Y','18','');</v>
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0018','1','업무일지 조회','MENU_0015','intrTaskInqy2010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1810,14 +2109,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1827,7 +2122,7 @@
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','양식 관리','MENU_0018','intrTempInqy1010.do','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','결재 관리','','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1838,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
@@ -1855,7 +2150,7 @@
       <c r="H22" s="4"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0020','1','프로젝트 관리','MENU_0018','intrProjInqy1010.do','Y','20','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0020','1','양식 관리','MENU_0019','intrTempInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1866,10 +2161,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +2178,7 @@
       <c r="H23" s="4"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0021','1','인사정보','','','Y','21','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0021','1','프로젝트 관리','MENU_0019','intrProjInqy1010.do','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,14 +2189,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +2202,7 @@
       <c r="H24" s="4"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0022','1','사원 관리','MENU_0021','intrEmpInqy1010.do','Y','22','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0022','1','인사정보','','','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1918,10 +2213,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +2230,7 @@
       <c r="H25" s="4"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0023','1','시스템 관리','','','Y','23','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0023','1','사원 관리','MENU_0022','intrEmpInqy1010.do','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1942,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
@@ -1958,8 +2257,8 @@
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0024','1','권한 관리','MENU_0023','intrAuthInqy1010.do','Y','24','');</v>
+        <f t="shared" ref="J26" si="7">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A26&amp;"','"&amp;B26&amp;"','"&amp;C26&amp;"','"&amp;D26&amp;"','"&amp;E26&amp;"','"&amp;F26&amp;"','"&amp;G26&amp;"','"&amp;H26&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0024','1','인사 통계','MENU_0022','intrEmpInqy4010.do','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1970,14 +2269,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1987,7 +2282,7 @@
       <c r="H27" s="4"/>
       <c r="J27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0025','1','메뉴 권한 부여','MENU_0023','intrAuthInqy2010.do','Y','25','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0025','1','시스템 관리','','','Y','25','');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1998,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>42</v>
@@ -2014,8 +2309,8 @@
       </c>
       <c r="H28" s="4"/>
       <c r="J28" s="3" t="str">
-        <f t="shared" ref="J28" si="6">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A28&amp;"','"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"','"&amp;F28&amp;"','"&amp;G28&amp;"','"&amp;H28&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0026','1','사용자 권한 부여','MENU_0023','intrAuthInqy3010.do','Y','26','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MENU VALUES('MENU_0026','1','권한 관리','MENU_0025','intrAuthInqy1010.do','Y','26','');</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2026,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>42</v>
@@ -2043,24 +2338,24 @@
       <c r="H29" s="4"/>
       <c r="J29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0027','1','배치 관리','MENU_0023','intrAuthInqy3010.do','Y','27','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0027','1','메뉴 권한 부여','MENU_0025','intrAuthInqy2010.do','Y','27','');</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>42</v>
@@ -2070,8 +2365,36 @@
       </c>
       <c r="H30" s="4"/>
       <c r="J30" s="3" t="str">
+        <f t="shared" ref="J30" si="8">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"','"&amp;C30&amp;"','"&amp;D30&amp;"','"&amp;E30&amp;"','"&amp;F30&amp;"','"&amp;G30&amp;"','"&amp;H30&amp;"');"</f>
+        <v>INSERT INTO MENU VALUES('MENU_0028','1','사용자 권한 부여','MENU_0025','intrAuthInqy3010.do','Y','28','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="4">
+        <v>29</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="J31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0028','1','쿼리 입력','MENU_0022','intrQueryInqy1010.do','Y','28','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0029','1','쿼리 입력','MENU_0025','intrQueryInqy1010.do','Y','29','');</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2412,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2173,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD6899-63FF-4260-80D6-0650038B0C85}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2722,6 +3045,44 @@
       <c r="G29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0027','Y','27','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="G30" s="3" t="str">
+        <f t="shared" ref="G30:G31" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"','"&amp;C30&amp;"','"&amp;D30&amp;"','"&amp;E30&amp;"');"</f>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0028','Y','28','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MENU_AUTH VALUES('AUTH_0001','MENU_0029','Y','29','');</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +3099,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2806,7 +3167,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3639,11 +4000,377 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0932ED-ACD7-45D7-AA89-FB38B3C13900}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="17.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="I3" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',''"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
+        <v>INSERT INTO TEMPLATE VALUES('TEMP_0001','휴가 신청서','&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;휴가 신청서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;구 &amp;nbsp;분&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;( ) 연차 ( ) 병가 ( ) 경조휴가 ( ) 반차 ( ) 기타&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;기 &amp;nbsp;간&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일 ~ OOOO년 OO월 OO일 (O일간)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 휴가를 신청하오니 허락하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;','20250520',''Y','1','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I6" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"',''"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"');"</f>
+        <v>INSERT INTO TEMPLATE VALUES('TEMP_0002','가지급결의서','&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;가지급결의서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;청구 금액&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p&gt;&lt;span style="font-size:13.3333px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;일금 (\&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;지급 방법&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;( ) 현금 ( ) 개인카드 ( ) 전도금&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;지급 일자&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위의 금액을 정히 청구하오니 지급하여 주십시오.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;','20250520',''Y','2','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO TEMPLATE VALUES('TEMP_0003','물품반출입 신청서','&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;물품반출입 신청서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 명&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;구&amp;nbsp; 분&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;물&amp;nbsp; 품&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;반출일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;사&amp;nbsp; 유&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 물품반출입을 신청하오니 허락하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;','20250520',''Y','3','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO TEMPLATE VALUES('TEMP_0004','법인카드 정산서','&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;&lt;strong&gt;&lt;span style="font-size:16.0pt"&gt;법인카드 정산서&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table align="center" cellspacing="0" class="MsoTableGrid" style="border-collapse:collapse; border:none; width:603px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="border-color:#0d0d0d; border-style:solid; border-width:1px; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;소&amp;nbsp; 속&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:1px solid #0d0d0d; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;성&amp;nbsp; 함&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:200px"&gt;직&amp;nbsp; 급&lt;/td&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:13.3333px"&gt;사용 카드&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" rowspan="1" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;(카드 회사 / 번호)&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;사용 기간&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:518px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 OO월 OO일 ~ OOOO년 OO월 OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:57px; width:200px"&gt;&amp;nbsp; 총 사용금액&lt;/td&gt;
+			&lt;td colspan="3" style="border-bottom:1px solid #0d0d0d; border-left:none; border-right:1px solid #0d0d0d; border-top:none; height:57px; text-align:center; width:518px"&gt;(\&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; )&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="4" style="border-bottom:1px solid #0d0d0d; border-left:1px solid #0d0d0d; border-right:1px solid #0d0d0d; border-top:none; height:317px; width:603px"&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;위와 같이 법인카드 월간 사용금액을 보고하오니 확인하여 주십시오.&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="font-size:10pt"&gt;OOOO년 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO월 &amp;nbsp;&amp;nbsp;&amp;nbsp;OO일&lt;/span&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;p style="margin-left:253px; text-align:center"&gt;&lt;span style="font-size:10pt"&gt;성명 : O&amp;nbsp; O&amp;nbsp; O&amp;nbsp; (인)&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;','20250520',''Y','4','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831DBCB-9C18-4A97-8D63-5A947798B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BEDA2-5E51-4D02-A334-9F3E8C1BC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -21,7 +21,8 @@
     <sheet name="ORG" sheetId="25" r:id="rId6"/>
     <sheet name="RANK" sheetId="26" r:id="rId7"/>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId8"/>
-    <sheet name="COMMCODE" sheetId="23" r:id="rId9"/>
+    <sheet name="PROJECT" sheetId="28" r:id="rId9"/>
+    <sheet name="COMMCODE" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="266">
   <si>
     <t>EMP_IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,12 +190,6 @@
     <t>intrBoardInqy2010.do</t>
   </si>
   <si>
-    <t>일정관리</t>
-  </si>
-  <si>
-    <t>intrScheInqy1010.do</t>
-  </si>
-  <si>
     <t>전자결재</t>
   </si>
   <si>
@@ -222,9 +217,6 @@
     <t>intrTaskInqy2010.do</t>
   </si>
   <si>
-    <t>결재 관리</t>
-  </si>
-  <si>
     <t>intrTempInqy1010.do</t>
   </si>
   <si>
@@ -582,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무일지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회의관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USE</t>
   </si>
   <si>
@@ -830,20 +814,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무 캘린더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0026</t>
   </si>
   <si>
     <t>MENU_0027</t>
   </si>
   <si>
-    <t>intrQnaInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결재선 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,10 +851,6 @@
   </si>
   <si>
     <t>인사 통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intrScheInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1145,11 +1117,95 @@
 &lt;/table&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>intrAprvInqy3010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrTaskInqy3010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_CONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_SDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_EDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_0001</t>
+  </si>
+  <si>
+    <t>내부 프로젝트</t>
+  </si>
+  <si>
+    <t>STAT_0020</t>
+  </si>
+  <si>
+    <t>연차 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrAprvInqy4010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자결재 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1219,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,10 +1298,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1623,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,16 +1639,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1677,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1694,7 +1753,7 @@
       <c r="H5" s="4"/>
       <c r="J5" s="3" t="str">
         <f t="shared" ref="J5:J31" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0003','0','회의관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0003','0','회의 관리','MENU_0001','intrMtgInqy1010.do','Y','3','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1705,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1722,7 +1781,7 @@
       <c r="H6" s="4"/>
       <c r="J6" s="3" t="str">
         <f t="shared" ref="J6" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0004','0','일정관리','MENU_0001','intrScheInqy1010.do','Y','4','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0004','0','연차 공유','MENU_0001','intrAprvInqy3010.do','Y','4','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1733,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1757,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -1785,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -1813,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1830,7 +1889,7 @@
       <c r="H10" s="4"/>
       <c r="J10" s="3" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0008','0','결재선 관리','MENU_0005','intrQnaInqy1010.do','Y','8','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0008','0','결재선 관리','MENU_0005','intrAprvInqy4010.do','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1841,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1854,7 +1913,7 @@
       <c r="H11" s="4"/>
       <c r="J11" s="3" t="str">
         <f t="shared" ref="J11:J12" si="4">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"');"</f>
-        <v>INSERT INTO MENU VALUES('MENU_0009','0','업무일지','','','Y','9','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0009','0','업무 관리','','','Y','9','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1865,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -1893,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -1910,7 +1969,7 @@
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무 캘린더','MENU_0009','intrScheInqy2010.do','Y','11','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0011','0','업무 캘린더','MENU_0009','intrTaskInqy3010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1921,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1945,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -1973,13 +2032,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -2001,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2025,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -2053,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
@@ -2081,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>42</v>
@@ -2109,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2122,7 +2181,7 @@
       <c r="H21" s="4"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO MENU VALUES('MENU_0019','1','결재 관리','','','Y','19','');</v>
+        <v>INSERT INTO MENU VALUES('MENU_0019','1','전자결재 관리','','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2133,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
@@ -2161,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>42</v>
@@ -2183,13 +2242,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2207,19 +2266,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
@@ -2235,19 +2294,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
@@ -2263,13 +2322,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2287,19 +2346,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>42</v>
@@ -2315,19 +2374,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>42</v>
@@ -2343,19 +2402,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>42</v>
@@ -2371,19 +2430,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>42</v>
@@ -2395,6 +2454,768 @@
       <c r="J31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO MENU VALUES('MENU_0029','1','쿼리 입력','MENU_0025','intrQueryInqy1010.do','Y','29','');</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E3" s="4">
+        <v>80516</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J23" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','USE','20250520','80516','Y','1','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E4" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','USE','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E5" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','STAT','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E6" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','STAT','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E7" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','STAT','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E8" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','LEAV','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','LEAV','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E10" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','LEAV','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E11" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','LEAV','20250520','80525','Y','4','');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E12" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','LEAV','20250520','80525','Y','5','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E13" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','PAY','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E14" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','PAY','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E15" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','PAY','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E16" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0010','기안','TYPE','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E17" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0020','결재','TYPE','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E18" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('TYPE_0030','참조','TYPE','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E19" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('REQ_0010','반입','REQ','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E20" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('REQ_0020','반출','REQ','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E21" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0010','결재진행중','STEP','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E22" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0020','결재완료','STEP','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0030','결재반송','STEP','20250520','80525','Y','3','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24" s="3" t="str">
+        <f t="shared" ref="J24" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A24&amp;"','"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('STEP_0040','결재취소','STEP','20250520','80525','Y','4','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E25" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25" s="3" t="str">
+        <f t="shared" ref="J25:J26" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A25&amp;"','"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"','"&amp;F25&amp;"','"&amp;G25&amp;"','"&amp;H25&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0010','승인','RSLT','20250520','80525','Y','1','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E26" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0020','반송','RSLT','20250520','80525','Y','2','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="4">
+        <v>20250520</v>
+      </c>
+      <c r="E27" s="4">
+        <v>80525</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="J27" s="3" t="str">
+        <f t="shared" ref="J27" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
+        <v>INSERT INTO COMMCODE VALUES('RSLT_0030','취소','RSLT','20250520','80525','Y','3','');</v>
       </c>
     </row>
   </sheetData>
@@ -2422,13 +3243,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2468,10 +3289,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -2509,13 +3330,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2938,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -2957,7 +3778,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -2976,7 +3797,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -2995,7 +3816,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -3014,7 +3835,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -3033,7 +3854,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -3052,7 +3873,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
@@ -3071,7 +3892,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
@@ -3109,13 +3930,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3139,7 +3960,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>42</v>
@@ -3179,49 +4000,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>2</v>
@@ -3230,41 +4051,41 @@
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L3" s="4">
         <v>20230814</v>
@@ -3302,26 +4123,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -3341,17 +4162,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>20230814</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -3367,17 +4188,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>20230814</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3393,17 +4214,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>20230814</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3419,17 +4240,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
         <v>20230814</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3445,17 +4266,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>20230814</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3471,17 +4292,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>20230814</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -3497,17 +4318,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
         <v>20230814</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3523,17 +4344,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>20230814</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -3549,17 +4370,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <v>20230814</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -3575,17 +4396,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
         <v>20230814</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -3601,17 +4422,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>20230814</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -3627,17 +4448,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>20230814</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -3653,17 +4474,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>20230814</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -3704,22 +4525,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -3739,16 +4560,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4">
         <v>20230814</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
@@ -3764,16 +4585,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C4" s="4">
         <v>20230814</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
@@ -3789,16 +4610,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="4">
         <v>20230814</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>42</v>
@@ -3814,16 +4635,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4">
         <v>20230814</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -3839,16 +4660,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4">
         <v>20230814</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
@@ -3864,16 +4685,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4">
         <v>20230814</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>42</v>
@@ -3889,16 +4710,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4">
         <v>20230814</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -3914,16 +4735,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4">
         <v>20230814</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
@@ -3939,16 +4760,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4">
         <v>20230814</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -3964,16 +4785,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4">
         <v>20230814</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -4004,7 +4825,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4014,28 +4835,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -4049,13 +4870,13 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -4124,13 +4945,13 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>250</v>
+        <v>233</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -4201,13 +5022,13 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -4278,13 +5099,13 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -4366,763 +5187,140 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877A2008-3B0E-4DFC-9F39-16C9B5BC3402}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="17.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="15" width="17.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4">
-        <v>20250520</v>
+        <v>19900101</v>
       </c>
       <c r="E3" s="4">
-        <v>80516</v>
+        <v>19901231</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4">
+        <v>262</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J23" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','USE','20250520','80516','Y','1','');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E4" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','USE','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E5" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0010','진행','STAT','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E6" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0020','완료','STAT','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E7" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STAT_0030','보류','STAT','20250520','80525','Y','3','');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E8" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0010','연차','LEAV','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E9" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0020','병가','LEAV','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E10" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0030','경조휴가','LEAV','20250520','80525','Y','3','');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E11" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0040','반차','LEAV','20250520','80525','Y','4','');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E12" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('LEAV_0050','기타','LEAV','20250520','80525','Y','5','');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E13" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0010','현금','PAY','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E14" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0020','개인카드','PAY','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E15" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('PAY_0030','전도금','PAY','20250520','80525','Y','3','');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E16" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('TYPE_0010','기안','TYPE','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E17" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('TYPE_0020','결재','TYPE','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E18" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('TYPE_0030','참조','TYPE','20250520','80525','Y','3','');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E19" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('REQ_0010','반입','REQ','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E20" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('REQ_0020','반출','REQ','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E21" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STEP_0010','결재진행중','STEP','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E22" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STEP_0020','결재완료','STEP','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E23" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('STEP_0030','결재반송','STEP','20250520','80525','Y','3','');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E24" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="J24" s="3" t="str">
-        <f t="shared" ref="J24" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A24&amp;"','"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('STEP_0040','결재취소','STEP','20250520','80525','Y','4','');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E25" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="J25" s="3" t="str">
-        <f t="shared" ref="J25:J26" si="2">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A25&amp;"','"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"','"&amp;F25&amp;"','"&amp;G25&amp;"','"&amp;H25&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('RSLT_0010','승인','RSLT','20250520','80525','Y','1','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E26" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO COMMCODE VALUES('RSLT_0020','반송','RSLT','20250520','80525','Y','2','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="4">
-        <v>20250520</v>
-      </c>
-      <c r="E27" s="4">
-        <v>80525</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="J27" s="3" t="str">
-        <f t="shared" ref="J27" si="3">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"','"&amp;F27&amp;"','"&amp;G27&amp;"','"&amp;H27&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('RSLT_0030','취소','RSLT','20250520','80525','Y','3','');</v>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="3" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"');"</f>
+        <v>INSERT INTO PROJECT VALUES('PROJ_0001','내부 프로젝트','내부 프로젝트','19900101','000000','Y','1','');</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K3:L3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
+++ b/02.프로젝트/01.인트라넷/01.설계/인트라넷 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knn\Documents\hikr90\02.프로젝트\01.인트라넷\01.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BEDA2-5E51-4D02-A334-9F3E8C1BC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DAF2D6-F849-4F61-A2EE-8394086508D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="9" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="8" r:id="rId1"/>
@@ -539,9 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>결재 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,14 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USE_0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAT_0010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,9 +717,6 @@
   <si>
     <t>intrMtgInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE</t>
   </si>
   <si>
     <t>STAT</t>
@@ -1196,6 +1182,22 @@
   </si>
   <si>
     <t>전자결재 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRE_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRE_0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1622,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1736,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1764,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1872,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1900,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1924,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
@@ -1952,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -2004,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
@@ -2032,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -2060,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2112,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
@@ -2168,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2192,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>37</v>
@@ -2220,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
@@ -2294,19 +2296,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>42</v>
@@ -2322,7 +2324,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2346,7 +2348,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -2355,7 +2357,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>59</v>
@@ -2374,7 +2376,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -2383,7 +2385,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>61</v>
@@ -2402,7 +2404,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -2411,7 +2413,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>63</v>
@@ -2430,7 +2432,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -2439,7 +2441,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>66</v>
@@ -2470,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E19CE9-CDB6-46E2-AE0E-C80BE1FBF213}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2520,13 +2522,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -2543,18 +2545,18 @@
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="str">
         <f t="shared" ref="J3:J23" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
-        <v>INSERT INTO COMMCODE VALUES('USE_0010','Y','USE','20250520','80516','Y','1','');</v>
+        <v>INSERT INTO COMMCODE VALUES('HIRE_0010','Y','HIRE','20250520','80516','Y','1','');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -2571,18 +2573,18 @@
       <c r="H4" s="4"/>
       <c r="J4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO COMMCODE VALUES('USE_0020','N','USE','20250520','80525','Y','2','');</v>
+        <v>INSERT INTO COMMCODE VALUES('HIRE_0020','N','HIRE','20250520','80525','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -2604,13 +2606,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -2632,13 +2634,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" s="4">
         <v>20250520</v>
@@ -2660,13 +2662,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4">
         <v>20250520</v>
@@ -2688,13 +2690,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D9" s="4">
         <v>20250520</v>
@@ -2716,13 +2718,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D10" s="4">
         <v>20250520</v>
@@ -2744,13 +2746,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4">
         <v>20250520</v>
@@ -2772,13 +2774,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D12" s="4">
         <v>20250520</v>
@@ -2800,13 +2802,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4">
         <v>20250520</v>
@@ -2828,13 +2830,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14" s="4">
         <v>20250520</v>
@@ -2856,13 +2858,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D15" s="4">
         <v>20250520</v>
@@ -2884,13 +2886,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4">
         <v>20250520</v>
@@ -2912,13 +2914,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D17" s="4">
         <v>20250520</v>
@@ -2940,13 +2942,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D18" s="4">
         <v>20250520</v>
@@ -2968,13 +2970,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D19" s="4">
         <v>20250520</v>
@@ -2996,13 +2998,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D20" s="4">
         <v>20250520</v>
@@ -3024,13 +3026,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4">
         <v>20250520</v>
@@ -3052,13 +3054,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D22" s="4">
         <v>20250520</v>
@@ -3080,13 +3082,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D23" s="4">
         <v>20250520</v>
@@ -3108,13 +3110,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D24" s="4">
         <v>20250520</v>
@@ -3136,13 +3138,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D25" s="4">
         <v>20250520</v>
@@ -3164,13 +3166,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D26" s="4">
         <v>20250520</v>
@@ -3192,13 +3194,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4">
         <v>20250520</v>
@@ -3797,7 +3799,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -3816,7 +3818,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -3835,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -3854,7 +3856,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -3873,7 +3875,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
@@ -3892,7 +3894,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
@@ -3960,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>42</v>
@@ -4836,7 +4838,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4847,16 +4849,16 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -4870,13 +4872,13 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="D3" s="4">
         <v>20250520</v>
@@ -4945,13 +4947,13 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="D4" s="4">
         <v>20250520</v>
@@ -5022,13 +5024,13 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="D5" s="4">
         <v>20250520</v>
@@ -5099,13 +5101,13 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="D6" s="4">
         <v>20250520</v>
@@ -5202,7 +5204,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5221,31 +5223,31 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>0</v>
@@ -5268,13 +5270,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D3" s="4">
         <v>19900101</v>
@@ -5283,7 +5285,7 @@
         <v>19901231</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>85</v>
